--- a/metadata_files/06_metadata_phenology/01_WORKING_monthly_datatypes/Grey Petrel_Gough.xlsx
+++ b/metadata_files/06_metadata_phenology/01_WORKING_monthly_datatypes/Grey Petrel_Gough.xlsx
@@ -2927,13 +2927,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{199BE3F0-00DB-4AB8-9949-464F5F59180B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F7DA33E-85FC-447D-9439-1F6BDFD5BEDE}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93F18720-1504-448E-995C-4D66B60CBA5D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E89D98F6-4860-493C-8C73-2476494E23A5}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1523476-BC2B-4DEC-BE87-D34D127A2EA0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{063678F3-D270-4F44-9C16-FB7B0994B924}"/>
 </file>